--- a/SuRGE_Sharepoint/data/CIN/CH4_070_francis_case_lacustrine/dataSheets/surgeData70Lac.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_070_francis_case_lacustrine/dataSheets/surgeData70Lac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_070_francis_case_lacustrine/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_070_francis_case_lacustrine/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{6703D5AF-101D-453B-99AE-1F5B16A2123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40F8A81A-1153-425A-A0B7-3608B70061B8}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{6703D5AF-101D-453B-99AE-1F5B16A2123F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B914124C-CF8D-45A1-A036-D2F173F01243}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1352,14 +1352,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1397,7 +1393,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1503,7 +1499,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1645,7 +1641,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1655,9 +1651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BP17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BJ5" sqref="BJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4143,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4241,7 +4237,7 @@
         <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C4">
         <v>0.1</v>
@@ -4270,7 +4266,7 @@
         <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C5">
         <v>0.1</v>
@@ -4299,7 +4295,7 @@
         <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C6">
         <v>24</v>
@@ -4328,7 +4324,7 @@
         <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C7">
         <v>24</v>
@@ -4357,7 +4353,7 @@
         <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>24</v>
@@ -4530,6 +4526,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5000,20 +5010,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5057,6 +5053,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2527765C-BA52-4B88-9E1D-01E11263DD8E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5079,22 +5091,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
